--- a/Data/all_in_one_Categorical_data_processed.xlsx
+++ b/Data/all_in_one_Categorical_data_processed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liu2286\Documents\GitHub\ADS_year3_project_8\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1C8B4E-57C0-4FB6-826A-367FD9EE4D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32217C30-E764-4C7B-8F53-904AC60541B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="732">
   <si>
     <t>Local Authority code</t>
   </si>
@@ -2229,6 +2229,10 @@
   </si>
   <si>
     <t>Local</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Threatened with homelessness within 56 days - Prevention duty owed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -36524,7 +36528,7 @@
   <dimension ref="A1:AJ245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -36550,7 +36554,7 @@
         <v>727</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>

--- a/Data/all_in_one_Categorical_data_processed.xlsx
+++ b/Data/all_in_one_Categorical_data_processed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liu2286\Documents\GitHub\ADS_year3_project_8\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32217C30-E764-4C7B-8F53-904AC60541B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883F7DCB-F0E3-49FA-9ED3-C238CCDB1ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="733">
   <si>
     <t>Local Authority code</t>
   </si>
@@ -2233,6 +2233,10 @@
   </si>
   <si>
     <t>Threatened with homelessness within 56 days - Prevention duty owed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size_of_social_housing_waiting_list_2020</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -36528,7 +36532,7 @@
   <dimension ref="A1:AJ245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -36572,7 +36576,7 @@
         <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>6</v>
+        <v>732</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>7</v>
